--- a/valveDriver通信协议-张国辉.xlsx
+++ b/valveDriver通信协议-张国辉.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9924"/>
+    <workbookView windowWidth="22943" windowHeight="9515"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
   <si>
     <t>通信协议</t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>0xff00-故障复归</t>
+  </si>
+  <si>
+    <t>复位</t>
   </si>
   <si>
     <t>设置量</t>
@@ -227,10 +230,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -271,14 +274,74 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,25 +355,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -321,8 +370,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,22 +396,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -367,45 +409,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -416,187 +419,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,17 +628,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,8 +679,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -713,15 +725,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -730,10 +733,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -742,133 +745,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1250,8 +1253,8 @@
   <sheetPr/>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1733,7 +1736,7 @@
       </c>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" s="2" customFormat="1" ht="15" customHeight="1" spans="1:6">
+    <row r="30" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A30" s="7">
         <v>18</v>
       </c>
@@ -1750,10 +1753,13 @@
       <c r="F30" s="7" t="s">
         <v>61</v>
       </c>
+      <c r="G30" s="2" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="31" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
       <c r="A31" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -1766,7 +1772,7 @@
         <v>1</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>58</v>
@@ -1778,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
@@ -1786,7 +1792,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
@@ -1802,7 +1808,7 @@
         <v>3</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4" t="s">
@@ -1818,7 +1824,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4" t="s">
